--- a/06.adhoc.requests/15.pr.po.rfq/lines that have pr no in rfq title only.xlsx
+++ b/06.adhoc.requests/15.pr.po.rfq/lines that have pr no in rfq title only.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/06.adhoc.requests/15.pr.po.rfq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{0AA6F251-F4EA-4097-9469-8C5AA1943A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{884537F2-7FA9-4210-89CF-FB97924413F0}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{0AA6F251-F4EA-4097-9469-8C5AA1943A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F703811-CDF9-4D8B-A4CD-2120F1896F24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{174E9525-F49E-426F-A0B0-295CF4F61A96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{174E9525-F49E-426F-A0B0-295CF4F61A96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="610">
   <si>
     <t>Project Name</t>
   </si>
@@ -2319,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B936EE4-A17D-463E-ABDB-22DED0E4E53E}">
   <dimension ref="A1:Z284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H283" sqref="H283"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1"/>
@@ -24921,4 +24922,639 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B88E4B-CA0E-405E-B182-C55373C83D40}">
+  <dimension ref="A1:A125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>93552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>96073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>98835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>103252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>103869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>104407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>104376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>101237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>100864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>104377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>101736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>103446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>103508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>104364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>104370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>102116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>103834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>104394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>104325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>103685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>104323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>102392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>104104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>104612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>103539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>103700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>98007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>103705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>103344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>102351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>102346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>102391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>102541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>103418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>103031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>105499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>104802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>103949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>105033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>104061</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>104978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>104273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>103781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>105070</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>105049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>98806</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>100481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>104050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>105415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>104473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>103896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>105375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>102504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>104984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>105682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>105938</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>105936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>104832</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>104980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>101340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>89258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>105971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>103622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>104011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>104155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>105191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>103848</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>102188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>103688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>103826</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>105612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>105485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>105856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>97495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>97863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>99918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>102593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>100516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>98829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>97760</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>100804</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>100917</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>101454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>104591</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>103951</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>104907</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>103795</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>104710</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>106212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>105688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>106453</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>106721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>106133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>105059</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>105058</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>105584</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>104533</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>105168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>106245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>98724</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>105475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>105322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>105317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>106667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>